--- a/va_facility_data_2025-02-20/Robley Rex Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Robley%20Rex%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Robley Rex Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Robley%20Rex%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rc837d4bab3aa4a1893acb1ae9cbc483d"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rde35916a69e94c76bb82f5b3d7f6a2f0"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd0ca89e997ab473b9c28ece77bc5764f"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R9fc97938f14b4b78ad38b8e160814523"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rdf738e5af2954d4684ad913e2127cc1d"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Ra2cda4a7a14843ad92122dc90b1656e6"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rdf1f637b186a47b1919f5cfd3b7d32c1"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R1d98c0a874174fdaa37b255d3c6d688e"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R2a0ba6043af643d988db43002b98a200"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rd429304068034fd28fd4509424b827ba"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R40f73583eafd46ef97555a0bc7b61ac5"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R695acb27d69343d9860234259f9d3c2d"/>
   </x:sheets>
 </x:workbook>
 </file>
